--- a/data/raw-data/small/ny-manual-input-data.xlsx
+++ b/data/raw-data/small/ny-manual-input-data.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\GMacDonald\Documents\covid-neighborhood-job-analysis\data\raw-data\small\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anarayanan\Documents\GitHub\covid-neighborhood-job-analysis\data\raw-data\small\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BA91C8-0607-49BA-8D8D-CEDE2A2BCDDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14700" yWindow="1830" windowWidth="9600" windowHeight="3585" xr2:uid="{ACCFAC06-BF85-491F-942C-F12C03CD2715}"/>
+    <workbookView xWindow="14700" yWindow="1830" windowWidth="9600" windowHeight="3590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -111,7 +110,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -457,21 +456,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580951B1-7442-4E6A-8B18-9C89E9AB3267}">
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,8 +490,11 @@
       <c r="F1" s="1">
         <v>43932</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1">
+        <v>43939</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -510,8 +513,11 @@
       <c r="F2">
         <v>59318</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>32490</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -530,8 +536,11 @@
       <c r="F3">
         <v>33780</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>17481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -550,8 +559,11 @@
       <c r="F4">
         <v>370</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -570,8 +582,11 @@
       <c r="F5">
         <v>13543</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>6242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -590,8 +605,11 @@
       <c r="F6">
         <v>45311</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>18307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -610,8 +628,11 @@
       <c r="F7">
         <v>9091</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>4625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -630,8 +651,11 @@
       <c r="F8">
         <v>3139</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -650,8 +674,11 @@
       <c r="F9">
         <v>43564</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>24173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -670,8 +697,11 @@
       <c r="F10">
         <v>10597</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>6825</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -690,8 +720,11 @@
       <c r="F11">
         <v>2749</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -710,8 +743,11 @@
       <c r="F12">
         <v>18986</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>10254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -730,8 +766,11 @@
       <c r="F13">
         <v>264</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -750,8 +789,11 @@
       <c r="F14">
         <v>22995</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>11883</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -770,8 +812,11 @@
       <c r="F15">
         <v>14739</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>6673</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -790,8 +835,11 @@
       <c r="F16">
         <v>2095</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -810,8 +858,11 @@
       <c r="F17">
         <v>6065</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -830,8 +881,11 @@
       <c r="F18">
         <v>63143</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>29782</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -850,8 +904,11 @@
       <c r="F19">
         <v>14292</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>9431</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -869,6 +926,9 @@
       </c>
       <c r="F20">
         <v>15881</v>
+      </c>
+      <c r="G20">
+        <v>7607</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw-data/small/ny-manual-input-data.xlsx
+++ b/data/raw-data/small/ny-manual-input-data.xlsx
@@ -457,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -468,10 +468,10 @@
     <col min="1" max="1" width="42.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,8 +493,11 @@
       <c r="G1" s="1">
         <v>43939</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="1">
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -516,8 +519,11 @@
       <c r="G2">
         <v>32490</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2">
+        <v>28045</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -539,8 +545,11 @@
       <c r="G3">
         <v>17481</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>17381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -562,8 +571,11 @@
       <c r="G4">
         <v>224</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -585,8 +597,11 @@
       <c r="G5">
         <v>6242</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>6311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -608,8 +623,11 @@
       <c r="G6">
         <v>18307</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>14419</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -631,8 +649,11 @@
       <c r="G7">
         <v>4625</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>6236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -654,8 +675,11 @@
       <c r="G8">
         <v>1510</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -677,8 +701,11 @@
       <c r="G9">
         <v>24173</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>24866</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -700,8 +727,11 @@
       <c r="G10">
         <v>6825</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H10">
+        <v>9771</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -723,8 +753,11 @@
       <c r="G11">
         <v>1566</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H11">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -746,8 +779,11 @@
       <c r="G12">
         <v>10254</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <v>10053</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -769,8 +805,11 @@
       <c r="G13">
         <v>179</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H13">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -792,8 +831,11 @@
       <c r="G14">
         <v>11883</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H14">
+        <v>10327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -815,8 +857,11 @@
       <c r="G15">
         <v>6673</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H15">
+        <v>7913</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -838,8 +883,11 @@
       <c r="G16">
         <v>1238</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -861,8 +909,11 @@
       <c r="G17">
         <v>2842</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H17">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -884,8 +935,11 @@
       <c r="G18">
         <v>29782</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18">
+        <v>25049</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -907,8 +961,11 @@
       <c r="G19">
         <v>9431</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H19">
+        <v>14483</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -929,6 +986,9 @@
       </c>
       <c r="G20">
         <v>7607</v>
+      </c>
+      <c r="H20">
+        <v>7470</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw-data/small/ny-manual-input-data.xlsx
+++ b/data/raw-data/small/ny-manual-input-data.xlsx
@@ -457,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -471,7 +471,7 @@
     <col min="7" max="8" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,8 +496,11 @@
       <c r="H1" s="1">
         <v>43946</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" s="1">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -522,8 +525,11 @@
       <c r="H2">
         <v>28045</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2">
+        <v>27726</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -548,8 +554,11 @@
       <c r="H3">
         <v>17381</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3">
+        <v>16070</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -574,8 +583,11 @@
       <c r="H4">
         <v>211</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -600,8 +612,11 @@
       <c r="H5">
         <v>6311</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I5">
+        <v>5565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -626,8 +641,11 @@
       <c r="H6">
         <v>14419</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I6">
+        <v>11141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -652,8 +670,11 @@
       <c r="H7">
         <v>6236</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I7">
+        <v>5576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -678,8 +699,11 @@
       <c r="H8">
         <v>1703</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -704,8 +728,11 @@
       <c r="H9">
         <v>24866</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9">
+        <v>22788</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -730,8 +757,11 @@
       <c r="H10">
         <v>9771</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I10">
+        <v>10499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -756,8 +786,11 @@
       <c r="H11">
         <v>1109</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I11">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -782,8 +815,11 @@
       <c r="H12">
         <v>10053</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I12">
+        <v>8484</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -808,8 +844,11 @@
       <c r="H13">
         <v>104</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I13">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -834,8 +873,11 @@
       <c r="H14">
         <v>10327</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I14">
+        <v>9028</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -860,8 +902,11 @@
       <c r="H15">
         <v>7913</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I15">
+        <v>7084</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -886,8 +931,11 @@
       <c r="H16">
         <v>1636</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I16">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -912,8 +960,11 @@
       <c r="H17">
         <v>3337</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I17">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -938,8 +989,11 @@
       <c r="H18">
         <v>25049</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I18">
+        <v>21520</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -964,8 +1018,11 @@
       <c r="H19">
         <v>14483</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I19">
+        <v>8222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -989,6 +1046,9 @@
       </c>
       <c r="H20">
         <v>7470</v>
+      </c>
+      <c r="I20">
+        <v>5715</v>
       </c>
     </row>
   </sheetData>
